--- a/outputs/context_out_sheet_vgg.xlsx
+++ b/outputs/context_out_sheet_vgg.xlsx
@@ -1,33 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ynaho\PycharmProjects\galit_project\psychology_project\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42106271-4778-40B0-B6AE-1AE75E747BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>regVScontext</t>
+  </si>
+  <si>
+    <t>regVSout</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +75,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,189 +355,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>regVScontext</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>regVSout</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.9720134735107422</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9605549573898315</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.9789415597915649</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9764283895492554</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.9860152006149292</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9917442798614502</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.9756662845611572</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9684481620788574</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.9839267134666443</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9920134544372559</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.9980687499046326</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9975479245185852</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.9934963583946228</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9962543845176697</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.9914373159408569</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9932402968406677</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.9910380840301514</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9846752882003784</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.9950825572013855</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9908121228218079</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.993281364440918</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9966467022895813</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.9990392923355103</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.996768057346344</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.9538912773132324</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9869135618209839</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.9770773649215698</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.979532778263092</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.9794642925262451</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9871851205825806</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.9831644296646118</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9818464517593384</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.9796015024185181</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9955092668533325</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.9673460721969604</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9818342328071594</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.3314030170440669</v>
+      </c>
+      <c r="B2">
+        <v>3.09856104850769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.5281355381011958</v>
+      </c>
+      <c r="B3">
+        <v>2.4112777709960942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.291606187820435</v>
+      </c>
+      <c r="B4">
+        <v>1.4090849161148069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.1584175825119021</v>
+      </c>
+      <c r="B5">
+        <v>0.95454156398773193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.5402992963790889</v>
+      </c>
+      <c r="B6">
+        <v>0.8856322169303894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.36528360843658447</v>
+      </c>
+      <c r="B7">
+        <v>0.56998872756958008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.343036293983459</v>
+      </c>
+      <c r="B8">
+        <v>0.85316747426986694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.873644113540649</v>
+      </c>
+      <c r="B9">
+        <v>1.6540088653564451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7.2094029746949673E-5</v>
+      </c>
+      <c r="B10">
+        <v>1.4977641694713381E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.93433719873428345</v>
+      </c>
+      <c r="B11">
+        <v>1.3330535888671879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.32165294885635382</v>
+      </c>
+      <c r="B12">
+        <v>0.95506006479263306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.3066003322601321</v>
+      </c>
+      <c r="B13">
+        <v>0.60025757551193237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.72270607948303223</v>
+      </c>
+      <c r="B14">
+        <v>1.049614310264587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.785039901733398</v>
+      </c>
+      <c r="B15">
+        <v>1.3492739200592041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2.0304698944091801</v>
+      </c>
+      <c r="B16">
+        <v>2.0124378204345699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1.427498936653137</v>
+      </c>
+      <c r="B17">
+        <v>1.435742139816284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.0952844619750981</v>
+      </c>
+      <c r="B19">
+        <v>2.0410904884338379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.4726910591125488</v>
+      </c>
+      <c r="B20">
+        <v>0.55017995834350586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.367594957351685</v>
+      </c>
+      <c r="B21">
+        <v>2.1676135063171391</v>
       </c>
     </row>
   </sheetData>
